--- a/Measurements/Test 5 - Antena Vamia V0 No obstacles/Statistics5.xlsx
+++ b/Measurements/Test 5 - Antena Vamia V0 No obstacles/Statistics5.xlsx
@@ -1,37 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\SerialReading\Measurements\Test 5 - Antena Vamia V0 No obstacles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BB1C84-46B9-42D0-ADFC-E2F99CDA8BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +103,1121 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1200"/>
+              <a:t>Vamia Gateway with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1200" baseline="0"/>
+              <a:t> Directional antenna - No obstacles</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Real RSSI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.06666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.06666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.266666666666673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.466666666666669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.733333333333327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57.466666666666669</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61.93333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.466666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-006F-44B8-8221-A4DB4AB812DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Computed RSSI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>29.525749891599531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.051499783199063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.453781259591089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.577249674798594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.979531151190621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.653200891955947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.102999566398118</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.381812627582654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.525749891599531</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.505281042790152</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.178950783555479</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59.62874945799765</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.907562519182179</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62.051499783199056</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.086316912154686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64.031030934389676</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64.900083590869983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.70470067515501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-006F-44B8-8221-A4DB4AB812DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="539819648"/>
+        <c:axId val="539817568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="539819648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539817568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539817568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539819648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5CD4F3D-B894-4C50-97E5-BF20CC1FD6B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,252 +1504,711 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>47</v>
+      </c>
+      <c r="H1">
+        <v>2.5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>-35.93333333333333</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.335998934185815</v>
+      <c r="C2">
+        <v>3.3359989341858149</v>
+      </c>
+      <c r="E2">
+        <f>-B2</f>
+        <v>35.93333333333333</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>POWER(10,(E2-$G$1)/(10*$H$1))*100</f>
+        <v>36.085550359331279</v>
+      </c>
+      <c r="K2">
+        <v>-35.93333333333333</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>20</v>
       </c>
-      <c r="B3" t="n">
-        <v>-35.8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.535087112244206</v>
+      <c r="B3">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="C3">
+        <v>2.5350871122442058</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="0">-B3</f>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="1">POWER(10,(E3-$G$1)/(10*$H$1))*100</f>
+        <v>35.645113342624413</v>
+      </c>
+      <c r="H3" s="2">
+        <f>(G3-F3)/F3</f>
+        <v>0.78225566713122063</v>
+      </c>
+      <c r="K3">
+        <f>E3</f>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="L3">
+        <f>10*$H$1*LOG(A3/100,10)+$G$1</f>
+        <v>29.525749891599531</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>40</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-41.4</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.282275633357646</v>
+      <c r="C4">
+        <v>3.2822756333576462</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>41.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>59.703528658383689</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H21" si="2">(G4-F4)/F4</f>
+        <v>0.49258821645959222</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K21" si="3">E4</f>
+        <v>41.4</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L21" si="4">10*$H$1*LOG(A4/100,10)+$G$1</f>
+        <v>37.051499783199063</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>60</v>
       </c>
-      <c r="B5" t="n">
-        <v>-39.13333333333333</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7180219742846006</v>
+      <c r="B5">
+        <v>-39.133333333333333</v>
+      </c>
+      <c r="C5">
+        <v>0.71802197428460057</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>39.133333333333333</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>48.454412625885908</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.19242645623523486</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>39.133333333333333</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>41.453781259591089</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>80</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-43.06666666666667</v>
       </c>
-      <c r="C6" t="n">
-        <v>3.92371705854991</v>
+      <c r="C6">
+        <v>3.9237170585499102</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>43.06666666666667</v>
+      </c>
+      <c r="F6" s="1">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>69.609203864062351</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.1298849516992206</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>43.06666666666667</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>44.577249674798594</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>100</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-47.06666666666667</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2.293953404544701</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>47.06666666666667</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>100.61591167507684</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1591167507684475E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>47.06666666666667</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>120</v>
       </c>
-      <c r="B8" t="n">
-        <v>-47.26666666666667</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>-47.266666666666673</v>
+      </c>
+      <c r="C8">
         <v>3.129785225148134</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>47.266666666666673</v>
+      </c>
+      <c r="F8" s="1">
+        <v>120</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>102.48650113344698</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.14594582388794183</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>47.266666666666673</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>48.979531151190621</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>140</v>
       </c>
-      <c r="B9" t="n">
-        <v>-44.86666666666667</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>-44.866666666666667</v>
+      </c>
+      <c r="C9">
         <v>3.030218180630269</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>44.866666666666667</v>
+      </c>
+      <c r="F9" s="1">
+        <v>140</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>82.161179752040894</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.41313443034256503</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>44.866666666666667</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>50.653200891955947</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>160</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-59.8</v>
       </c>
-      <c r="C10" t="n">
-        <v>5.946427498927402</v>
+      <c r="C10">
+        <v>5.9464274989274024</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>59.8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>160</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>325.08729738543434</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0317956086589646</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>59.8</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>52.102999566398118</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>180</v>
       </c>
-      <c r="B11" t="n">
-        <v>-54.46666666666667</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.487764167268447</v>
+      <c r="B11">
+        <v>-54.466666666666669</v>
+      </c>
+      <c r="C11">
+        <v>5.4877641672684474</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>54.466666666666669</v>
+      </c>
+      <c r="F11" s="1">
+        <v>180</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>198.91460269380337</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10508112607668542</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>54.466666666666669</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>53.381812627582654</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>200</v>
       </c>
-      <c r="B12" t="n">
-        <v>-54.33333333333334</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12">
+        <v>-54.333333333333343</v>
+      </c>
+      <c r="C12">
         <v>2.521022720158538</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>54.333333333333343</v>
+      </c>
+      <c r="F12" s="1">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>196.48677899934694</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.7566105003265307E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>54.333333333333343</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>54.525749891599531</v>
+      </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>240</v>
       </c>
-      <c r="B13" t="n">
-        <v>-56.66666666666666</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13">
+        <v>-56.666666666666657</v>
+      </c>
+      <c r="C13">
         <v>2.867441755680876</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>56.666666666666657</v>
+      </c>
+      <c r="F13" s="1">
+        <v>240</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>243.59404472920247</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4975186371676941E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>56.666666666666657</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>56.505281042790152</v>
+      </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>280</v>
       </c>
-      <c r="B14" t="n">
-        <v>-63.33333333333334</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14">
+        <v>-63.333333333333343</v>
+      </c>
+      <c r="C14">
         <v>1.135292424395093</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>63.333333333333343</v>
+      </c>
+      <c r="F14" s="1">
+        <v>280</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>450.12520620613418</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.60759002216476488</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>63.333333333333343</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>58.178950783555479</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>320</v>
       </c>
-      <c r="B15" t="n">
-        <v>-57.66666666666666</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.628414655389276</v>
+      <c r="B15">
+        <v>-57.666666666666657</v>
+      </c>
+      <c r="C15">
+        <v>4.6284146553892764</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>57.666666666666657</v>
+      </c>
+      <c r="F15" s="1">
+        <v>320</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>267.09555875589825</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.16532637888781795</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>57.666666666666657</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>59.62874945799765</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>360</v>
       </c>
-      <c r="B16" t="n">
-        <v>-53.73333333333333</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16">
+        <v>-53.733333333333327</v>
+      </c>
+      <c r="C16">
         <v>0.9285592184789413</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>53.733333333333327</v>
+      </c>
+      <c r="F16" s="1">
+        <v>360</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>185.9230920062497</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.48354696664930635</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>53.733333333333327</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>60.907562519182179</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>400</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-54.2</v>
       </c>
-      <c r="C17" t="n">
-        <v>1.045625809423875</v>
+      <c r="C17">
+        <v>1.0456258094238751</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>54.2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>400</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>194.08858775927786</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.51477853060180534</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>54.2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>62.051499783199056</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>440</v>
       </c>
-      <c r="B18" t="n">
-        <v>-57.46666666666667</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.359738536958076</v>
+      <c r="B18">
+        <v>-57.466666666666669</v>
+      </c>
+      <c r="C18">
+        <v>1.3597385369580759</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>57.466666666666669</v>
+      </c>
+      <c r="F18" s="1">
+        <v>440</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>262.22051539837679</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.40404428318550728</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>57.466666666666669</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>63.086316912154686</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>480</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-60.4</v>
       </c>
-      <c r="C19" t="n">
-        <v>4.484045792213397</v>
+      <c r="C19">
+        <v>4.4840457922133972</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>60.4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>480</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>343.55794789987459</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.28425427520859459</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>60.4</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>64.031030934389676</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>520</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-61.93333333333333</v>
       </c>
-      <c r="C20" t="n">
-        <v>6.546924638501824</v>
+      <c r="C20">
+        <v>6.5469246385018236</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>61.93333333333333</v>
+      </c>
+      <c r="F20" s="1">
+        <v>520</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>395.6701916483363</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.23909578529166095</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>61.93333333333333</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>64.900083590869983</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>560</v>
       </c>
-      <c r="B21" t="n">
-        <v>-51.46666666666667</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21">
+        <v>-51.466666666666669</v>
+      </c>
+      <c r="C21">
         <v>1.203698005684519</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>51.466666666666669</v>
+      </c>
+      <c r="F21" s="1">
+        <v>560</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>150.89215694935893</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.73054971973328764</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>51.466666666666669</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>65.70470067515501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H24" s="3" cm="1">
+        <f t="array" ref="H24">SUM(ABS(H3:H21))/COUNT(H3:H21)</f>
+        <v>0.35584203422841476</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Measurements/Test 5 - Antena Vamia V0 No obstacles/Statistics5.xlsx
+++ b/Measurements/Test 5 - Antena Vamia V0 No obstacles/Statistics5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\SerialReading\Measurements\Test 5 - Antena Vamia V0 No obstacles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\Proyects\Work\Vamia-SerialPortReading\Measurements\Test 5 - Antena Vamia V0 No obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BB1C84-46B9-42D0-ADFC-E2F99CDA8BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AEBCD4-9BCA-446D-B5C6-3162E66E1890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,14 +181,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-MX" sz="1200"/>
-              <a:t>Vamia Gateway with</a:t>
+              <a:rPr lang="es-MX"/>
+              <a:t>Vamia Gateway With Directional</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-MX" sz="1200" baseline="0"/>
-              <a:t> Directional antenna - No obstacles</a:t>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> Antenna - No obstacles</a:t>
             </a:r>
-            <a:endParaRPr lang="es-MX" sz="1200"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -224,17 +224,14 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Real RSSI</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -257,7 +254,73 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$K$3:$K$21</c:f>
               <c:numCache>
@@ -322,22 +385,19 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-006F-44B8-8221-A4DB4AB812DD}"/>
+              <c16:uniqueId val="{00000000-B2DB-4192-AFD8-4CF5F541BF32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Computed RSSI</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -360,76 +420,142 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$L$3:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>29.525749891599531</c:v>
+                  <c:v>26.525749891599531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.051499783199063</c:v>
+                  <c:v>34.051499783199063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.453781259591089</c:v>
+                  <c:v>38.453781259591089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.577249674798594</c:v>
+                  <c:v>41.577249674798594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.979531151190621</c:v>
+                  <c:v>45.979531151190621</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.653200891955947</c:v>
+                  <c:v>47.653200891955947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.102999566398118</c:v>
+                  <c:v>49.102999566398118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.381812627582654</c:v>
+                  <c:v>50.381812627582654</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.525749891599531</c:v>
+                  <c:v>51.525749891599531</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.505281042790152</c:v>
+                  <c:v>53.505281042790152</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58.178950783555479</c:v>
+                  <c:v>55.178950783555479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.62874945799765</c:v>
+                  <c:v>56.62874945799765</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60.907562519182179</c:v>
+                  <c:v>57.907562519182179</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62.051499783199056</c:v>
+                  <c:v>59.051499783199056</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63.086316912154686</c:v>
+                  <c:v>60.086316912154686</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.031030934389676</c:v>
+                  <c:v>61.031030934389676</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64.900083590869983</c:v>
+                  <c:v>61.900083590869983</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.70470067515501</c:v>
+                  <c:v>62.70470067515501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-006F-44B8-8221-A4DB4AB812DD}"/>
+              <c16:uniqueId val="{00000001-B2DB-4192-AFD8-4CF5F541BF32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -441,18 +567,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="539819648"/>
-        <c:axId val="539817568"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="539819648"/>
+        <c:axId val="519554224"/>
+        <c:axId val="519555888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="519554224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -461,8 +600,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -489,18 +628,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539817568"/>
+        <c:crossAx val="519555888"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="539817568"/>
+        <c:axId val="519555888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -524,8 +659,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -549,9 +690,9 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539819648"/>
+        <c:crossAx val="519554224"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -594,13 +735,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -677,7 +811,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -704,8 +838,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -806,7 +940,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -838,10 +972,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -881,22 +1015,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1001,8 +1136,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1134,19 +1269,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1160,6 +1296,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1183,23 +1330,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5CD4F3D-B894-4C50-97E5-BF20CC1FD6B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389C9625-003D-4284-71E6-9BCE3B06688A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,15 +1655,15 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H21"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1524,13 +1671,13 @@
         <v>1</v>
       </c>
       <c r="G1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1549,13 +1696,13 @@
       </c>
       <c r="G2">
         <f>POWER(10,(E2-$G$1)/(10*$H$1))*100</f>
-        <v>36.085550359331279</v>
+        <v>47.57001992570504</v>
       </c>
       <c r="K2">
         <v>-35.93333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1574,11 +1721,14 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G21" si="1">POWER(10,(E3-$G$1)/(10*$H$1))*100</f>
-        <v>35.645113342624413</v>
+        <v>46.989410860521524</v>
       </c>
       <c r="H3" s="2">
         <f>(G3-F3)/F3</f>
-        <v>0.78225566713122063</v>
+        <v>1.3494705430260763</v>
+      </c>
+      <c r="J3" s="1">
+        <v>20</v>
       </c>
       <c r="K3">
         <f>E3</f>
@@ -1586,10 +1736,10 @@
       </c>
       <c r="L3">
         <f>10*$H$1*LOG(A3/100,10)+$G$1</f>
-        <v>29.525749891599531</v>
+        <v>26.525749891599531</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -1608,11 +1758,14 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>59.703528658383689</v>
+        <v>78.704578969509853</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ref="H4:H21" si="2">(G4-F4)/F4</f>
-        <v>0.49258821645959222</v>
+        <v>0.96761447423774638</v>
+      </c>
+      <c r="J4" s="1">
+        <v>40</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K21" si="3">E4</f>
@@ -1620,10 +1773,10 @@
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L21" si="4">10*$H$1*LOG(A4/100,10)+$G$1</f>
-        <v>37.051499783199063</v>
+        <v>34.051499783199063</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -1642,11 +1795,14 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>48.454412625885908</v>
+        <v>63.875355956866755</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>-0.19242645623523486</v>
+        <v>6.4589265947779265E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>60</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
@@ -1654,10 +1810,10 @@
       </c>
       <c r="L5">
         <f t="shared" si="4"/>
-        <v>41.453781259591089</v>
+        <v>38.453781259591089</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -1676,11 +1832,14 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>69.609203864062351</v>
+        <v>91.762802059346896</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>-0.1298849516992206</v>
+        <v>0.14703502574183619</v>
+      </c>
+      <c r="J6" s="1">
+        <v>80</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
@@ -1688,10 +1847,10 @@
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>44.577249674798594</v>
+        <v>41.577249674798594</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -1710,11 +1869,14 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>100.61591167507684</v>
+        <v>132.63760357166632</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>6.1591167507684475E-3</v>
+        <v>0.32637603571666318</v>
+      </c>
+      <c r="J7" s="1">
+        <v>100</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
@@ -1722,10 +1884,10 @@
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>120</v>
       </c>
@@ -1744,11 +1906,14 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>102.48650113344698</v>
+        <v>135.10352073023532</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.14594582388794183</v>
+        <v>0.12586267275196097</v>
+      </c>
+      <c r="J8" s="1">
+        <v>120</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
@@ -1756,10 +1921,10 @@
       </c>
       <c r="L8">
         <f t="shared" si="4"/>
-        <v>48.979531151190621</v>
+        <v>45.979531151190621</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>140</v>
       </c>
@@ -1778,11 +1943,14 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>82.161179752040894</v>
+        <v>108.30952885587214</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>-0.41313443034256503</v>
+        <v>-0.22636050817234182</v>
+      </c>
+      <c r="J9" s="1">
+        <v>140</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
@@ -1790,10 +1958,10 @@
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
-        <v>50.653200891955947</v>
+        <v>47.653200891955947</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>160</v>
       </c>
@@ -1812,11 +1980,14 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>325.08729738543434</v>
+        <v>428.5485203974394</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>1.0317956086589646</v>
+        <v>1.6784282524839962</v>
+      </c>
+      <c r="J10" s="1">
+        <v>160</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
@@ -1824,10 +1995,10 @@
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>52.102999566398118</v>
+        <v>49.102999566398118</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>180</v>
       </c>
@@ -1846,11 +2017,14 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>198.91460269380337</v>
+        <v>262.22051539837679</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>0.10508112607668542</v>
+        <v>0.45678064110209327</v>
+      </c>
+      <c r="J11" s="1">
+        <v>180</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
@@ -1858,10 +2032,10 @@
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>53.381812627582654</v>
+        <v>50.381812627582654</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -1880,11 +2054,14 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>196.48677899934694</v>
+        <v>259.02002045313264</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>-1.7566105003265307E-2</v>
+        <v>0.29510010226566324</v>
+      </c>
+      <c r="J12" s="1">
+        <v>200</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
@@ -1892,10 +2069,10 @@
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>54.525749891599531</v>
+        <v>51.525749891599531</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>240</v>
       </c>
@@ -1914,11 +2091,14 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>243.59404472920247</v>
+        <v>321.11949093648201</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>1.4975186371676941E-2</v>
+        <v>0.33799787890200839</v>
+      </c>
+      <c r="J13" s="1">
+        <v>240</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
@@ -1926,10 +2106,10 @@
       </c>
       <c r="L13">
         <f t="shared" si="4"/>
-        <v>56.505281042790152</v>
+        <v>53.505281042790152</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>280</v>
       </c>
@@ -1948,11 +2128,14 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>450.12520620613418</v>
+        <v>593.38058627532871</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
-        <v>0.60759002216476488</v>
+        <v>1.1192163795547454</v>
+      </c>
+      <c r="J14" s="1">
+        <v>280</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
@@ -1960,10 +2143,10 @@
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>58.178950783555479</v>
+        <v>55.178950783555479</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>320</v>
       </c>
@@ -1982,11 +2165,14 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>267.09555875589825</v>
+        <v>352.10052016845168</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="2"/>
-        <v>-0.16532637888781795</v>
+        <v>0.1003141255264115</v>
+      </c>
+      <c r="J15" s="1">
+        <v>320</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
@@ -1994,10 +2180,10 @@
       </c>
       <c r="L15">
         <f t="shared" si="4"/>
-        <v>59.62874945799765</v>
+        <v>56.62874945799765</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>360</v>
       </c>
@@ -2016,11 +2202,14 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>185.9230920062497</v>
+        <v>245.09436889048152</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="2"/>
-        <v>-0.48354696664930635</v>
+        <v>-0.31918230863755132</v>
+      </c>
+      <c r="J16" s="1">
+        <v>360</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
@@ -2028,10 +2217,10 @@
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
-        <v>60.907562519182179</v>
+        <v>57.907562519182179</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>400</v>
       </c>
@@ -2050,11 +2239,14 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>194.08858775927786</v>
+        <v>255.85858869056472</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="2"/>
-        <v>-0.51477853060180534</v>
+        <v>-0.36035352827358819</v>
+      </c>
+      <c r="J17" s="1">
+        <v>400</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
@@ -2062,10 +2254,10 @@
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
-        <v>62.051499783199056</v>
+        <v>59.051499783199056</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>440</v>
       </c>
@@ -2084,11 +2276,14 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>262.22051539837679</v>
+        <v>345.67396141164431</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="2"/>
-        <v>-0.40404428318550728</v>
+        <v>-0.21437736042808112</v>
+      </c>
+      <c r="J18" s="1">
+        <v>440</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
@@ -2096,10 +2291,10 @@
       </c>
       <c r="L18">
         <f t="shared" si="4"/>
-        <v>63.086316912154686</v>
+        <v>60.086316912154686</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>480</v>
       </c>
@@ -2118,11 +2313,14 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>343.55794789987459</v>
+        <v>452.89757990362079</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="2"/>
-        <v>-0.28425427520859459</v>
+        <v>-5.6463375200790013E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>480</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
@@ -2130,10 +2328,10 @@
       </c>
       <c r="L19">
         <f t="shared" si="4"/>
-        <v>64.031030934389676</v>
+        <v>61.031030934389676</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>520</v>
       </c>
@@ -2152,11 +2350,14 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>395.6701916483363</v>
+        <v>521.59489638632431</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>-0.23909578529166095</v>
+        <v>3.0671084352390538E-3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>520</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
@@ -2164,10 +2365,10 @@
       </c>
       <c r="L20">
         <f t="shared" si="4"/>
-        <v>64.900083590869983</v>
+        <v>61.900083590869983</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>560</v>
       </c>
@@ -2186,11 +2387,14 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>150.89215694935893</v>
+        <v>198.91460269380337</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="2"/>
-        <v>-0.73054971973328764</v>
+        <v>-0.64479535233249397</v>
+      </c>
+      <c r="J21" s="1">
+        <v>560</v>
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
@@ -2198,13 +2402,13 @@
       </c>
       <c r="L21">
         <f t="shared" si="4"/>
-        <v>65.70470067515501</v>
+        <v>62.70470067515501</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H24" s="3" cm="1">
         <f t="array" ref="H24">SUM(ABS(H3:H21))/COUNT(H3:H21)</f>
-        <v>0.35584203422841476</v>
+        <v>0.46280973361774036</v>
       </c>
     </row>
   </sheetData>
